--- a/Week6/dictionary/sfav2021.xlsx
+++ b/Week6/dictionary/sfav2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Winter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7AFEE-F96E-D34F-811F-E7C61F50A136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="150" windowWidth="13290" windowHeight="11640"/>
+    <workbookView xWindow="3560" yWindow="3860" windowWidth="20200" windowHeight="18600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -475,17 +476,17 @@
     <t>This file contains the number of students, who received either or both Post-9/11 GI Benefits or the Department of Defense Tuition Assistance through the institution. Eligible dependents receiving such benefits are included. Students who received both benefits, are counted in both programs. Total dollar amounts received by students are included. Data reported for the Post-9/11 GI Bill benefit are for the academic year July 1, 2020 to June 30, 2021.  Data reported for the Department of Defense Tuition Assistance are for the academic year October 1, 2020 to September 30, 2021. Data are provided for undergraduate and graduate students.</t>
   </si>
   <si>
-    <t/>
+    <t>PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -570,9 +571,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -580,10 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -597,9 +592,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -620,7 +612,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,9 +628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -676,9 +668,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,7 +705,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,7 +740,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -921,47 +913,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.95" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.95" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -973,7 +965,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="12.95" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -981,23 +973,23 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="102.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1008,99 +1000,99 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.95" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="12" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="12" spans="1:10" ht="79.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1120,49 +1112,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="13" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1185,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>72001</v>
       </c>
@@ -1208,7 +1200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>72006</v>
       </c>
@@ -1231,7 +1223,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>72011</v>
       </c>
@@ -1254,7 +1246,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>72016</v>
       </c>
@@ -1277,7 +1269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>72021</v>
       </c>
@@ -1300,7 +1292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>72026</v>
       </c>
@@ -1323,7 +1315,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>72031</v>
       </c>
@@ -1346,7 +1338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>72036</v>
       </c>
@@ -1369,7 +1361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>72041</v>
       </c>
@@ -1392,7 +1384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>72046</v>
       </c>
@@ -1415,7 +1407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>72051</v>
       </c>
@@ -1438,7 +1430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>72056</v>
       </c>
@@ -1461,7 +1453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>72061</v>
       </c>
@@ -1484,7 +1476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>72066</v>
       </c>
@@ -1507,7 +1499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>72071</v>
       </c>
@@ -1530,7 +1522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>72076</v>
       </c>
@@ -1553,7 +1545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>72081</v>
       </c>
@@ -1576,7 +1568,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>72086</v>
       </c>
@@ -1599,7 +1591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1608,7 +1600,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1617,7 +1609,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1626,7 +1618,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1635,7 +1627,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1644,7 +1636,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1653,7 +1645,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1662,7 +1654,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1671,7 +1663,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1680,7 +1672,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1689,7 +1681,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1698,7 +1690,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1707,7 +1699,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1716,7 +1708,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1725,7 +1717,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1734,7 +1726,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1743,7 +1735,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1752,7 +1744,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1761,7 +1753,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1770,7 +1762,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1779,7 +1771,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1788,7 +1780,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1796,7 +1788,7 @@
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1805,7 +1797,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1814,7 +1806,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1823,7 +1815,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1831,7 +1823,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1840,7 +1832,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1848,7 +1840,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1857,7 +1849,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1866,7 +1858,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1875,7 +1867,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1883,7 +1875,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1892,7 +1884,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1900,7 +1892,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1909,7 +1901,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1918,7 +1910,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1927,7 +1919,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1935,7 +1927,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1944,7 +1936,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1952,7 +1944,7 @@
       <c r="E60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1961,7 +1953,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1970,7 +1962,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1979,7 +1971,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1988,7 +1980,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1997,7 +1989,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2006,7 +1998,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2015,7 +2007,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2024,7 +2016,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2033,7 +2025,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2042,7 +2034,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2051,7 +2043,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2060,7 +2052,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2069,7 +2061,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2078,7 +2070,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2087,7 +2079,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2096,7 +2088,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2105,7 +2097,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2114,7 +2106,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2123,7 +2115,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2132,7 +2124,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2141,7 +2133,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2150,7 +2142,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2159,7 +2151,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2168,7 +2160,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2177,7 +2169,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2186,7 +2178,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2195,7 +2187,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2204,7 +2196,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2213,7 +2205,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2222,7 +2214,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2231,7 +2223,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2240,7 +2232,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2249,7 +2241,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2258,7 +2250,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2267,7 +2259,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2276,7 +2268,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2285,7 +2277,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2294,7 +2286,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2303,7 +2295,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2312,7 +2304,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2321,16 +2313,16 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="20"/>
+      <c r="F102" s="18"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2338,7 +2330,7 @@
       <c r="E103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2346,7 +2338,7 @@
       <c r="E104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2355,7 +2347,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2364,7 +2356,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2373,7 +2365,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2382,7 +2374,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2391,7 +2383,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2400,7 +2392,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2409,7 +2401,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2418,7 +2410,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2426,16 +2418,16 @@
       <c r="E113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="20"/>
+      <c r="F114" s="18"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2443,7 +2435,7 @@
       <c r="E115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2451,7 +2443,7 @@
       <c r="E116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2459,7 +2451,7 @@
       <c r="E117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2467,16 +2459,16 @@
       <c r="E118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="20"/>
+      <c r="F119" s="18"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2484,7 +2476,7 @@
       <c r="E120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2492,7 +2484,7 @@
       <c r="E121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2500,7 +2492,7 @@
       <c r="E122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2508,7 +2500,7 @@
       <c r="E123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2516,7 +2508,7 @@
       <c r="E124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2524,7 +2516,7 @@
       <c r="E125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2532,16 +2524,16 @@
       <c r="E126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="20"/>
+      <c r="F127" s="18"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2550,7 +2542,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2559,7 +2551,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2568,7 +2560,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2577,7 +2569,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2586,7 +2578,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2594,16 +2586,16 @@
       <c r="E133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="20"/>
+      <c r="F134" s="18"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2612,7 +2604,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2621,7 +2613,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2630,7 +2622,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2646,7 +2638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2654,765 +2646,573 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="18"/>
-    <col min="2" max="2" width="11.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="144.85546875" style="18" customWidth="1"/>
-    <col min="4" max="257" width="8.7109375" style="19"/>
-    <col min="258" max="258" width="11.140625" style="19" customWidth="1"/>
-    <col min="259" max="259" width="144.85546875" style="19" customWidth="1"/>
-    <col min="260" max="513" width="8.7109375" style="19"/>
-    <col min="514" max="514" width="11.140625" style="19" customWidth="1"/>
-    <col min="515" max="515" width="144.85546875" style="19" customWidth="1"/>
-    <col min="516" max="769" width="8.7109375" style="19"/>
-    <col min="770" max="770" width="11.140625" style="19" customWidth="1"/>
-    <col min="771" max="771" width="144.85546875" style="19" customWidth="1"/>
-    <col min="772" max="1025" width="8.7109375" style="19"/>
-    <col min="1026" max="1026" width="11.140625" style="19" customWidth="1"/>
-    <col min="1027" max="1027" width="144.85546875" style="19" customWidth="1"/>
-    <col min="1028" max="1281" width="8.7109375" style="19"/>
-    <col min="1282" max="1282" width="11.140625" style="19" customWidth="1"/>
-    <col min="1283" max="1283" width="144.85546875" style="19" customWidth="1"/>
-    <col min="1284" max="1537" width="8.7109375" style="19"/>
-    <col min="1538" max="1538" width="11.140625" style="19" customWidth="1"/>
-    <col min="1539" max="1539" width="144.85546875" style="19" customWidth="1"/>
-    <col min="1540" max="1793" width="8.7109375" style="19"/>
-    <col min="1794" max="1794" width="11.140625" style="19" customWidth="1"/>
-    <col min="1795" max="1795" width="144.85546875" style="19" customWidth="1"/>
-    <col min="1796" max="2049" width="8.7109375" style="19"/>
-    <col min="2050" max="2050" width="11.140625" style="19" customWidth="1"/>
-    <col min="2051" max="2051" width="144.85546875" style="19" customWidth="1"/>
-    <col min="2052" max="2305" width="8.7109375" style="19"/>
-    <col min="2306" max="2306" width="11.140625" style="19" customWidth="1"/>
-    <col min="2307" max="2307" width="144.85546875" style="19" customWidth="1"/>
-    <col min="2308" max="2561" width="8.7109375" style="19"/>
-    <col min="2562" max="2562" width="11.140625" style="19" customWidth="1"/>
-    <col min="2563" max="2563" width="144.85546875" style="19" customWidth="1"/>
-    <col min="2564" max="2817" width="8.7109375" style="19"/>
-    <col min="2818" max="2818" width="11.140625" style="19" customWidth="1"/>
-    <col min="2819" max="2819" width="144.85546875" style="19" customWidth="1"/>
-    <col min="2820" max="3073" width="8.7109375" style="19"/>
-    <col min="3074" max="3074" width="11.140625" style="19" customWidth="1"/>
-    <col min="3075" max="3075" width="144.85546875" style="19" customWidth="1"/>
-    <col min="3076" max="3329" width="8.7109375" style="19"/>
-    <col min="3330" max="3330" width="11.140625" style="19" customWidth="1"/>
-    <col min="3331" max="3331" width="144.85546875" style="19" customWidth="1"/>
-    <col min="3332" max="3585" width="8.7109375" style="19"/>
-    <col min="3586" max="3586" width="11.140625" style="19" customWidth="1"/>
-    <col min="3587" max="3587" width="144.85546875" style="19" customWidth="1"/>
-    <col min="3588" max="3841" width="8.7109375" style="19"/>
-    <col min="3842" max="3842" width="11.140625" style="19" customWidth="1"/>
-    <col min="3843" max="3843" width="144.85546875" style="19" customWidth="1"/>
-    <col min="3844" max="4097" width="8.7109375" style="19"/>
-    <col min="4098" max="4098" width="11.140625" style="19" customWidth="1"/>
-    <col min="4099" max="4099" width="144.85546875" style="19" customWidth="1"/>
-    <col min="4100" max="4353" width="8.7109375" style="19"/>
-    <col min="4354" max="4354" width="11.140625" style="19" customWidth="1"/>
-    <col min="4355" max="4355" width="144.85546875" style="19" customWidth="1"/>
-    <col min="4356" max="4609" width="8.7109375" style="19"/>
-    <col min="4610" max="4610" width="11.140625" style="19" customWidth="1"/>
-    <col min="4611" max="4611" width="144.85546875" style="19" customWidth="1"/>
-    <col min="4612" max="4865" width="8.7109375" style="19"/>
-    <col min="4866" max="4866" width="11.140625" style="19" customWidth="1"/>
-    <col min="4867" max="4867" width="144.85546875" style="19" customWidth="1"/>
-    <col min="4868" max="5121" width="8.7109375" style="19"/>
-    <col min="5122" max="5122" width="11.140625" style="19" customWidth="1"/>
-    <col min="5123" max="5123" width="144.85546875" style="19" customWidth="1"/>
-    <col min="5124" max="5377" width="8.7109375" style="19"/>
-    <col min="5378" max="5378" width="11.140625" style="19" customWidth="1"/>
-    <col min="5379" max="5379" width="144.85546875" style="19" customWidth="1"/>
-    <col min="5380" max="5633" width="8.7109375" style="19"/>
-    <col min="5634" max="5634" width="11.140625" style="19" customWidth="1"/>
-    <col min="5635" max="5635" width="144.85546875" style="19" customWidth="1"/>
-    <col min="5636" max="5889" width="8.7109375" style="19"/>
-    <col min="5890" max="5890" width="11.140625" style="19" customWidth="1"/>
-    <col min="5891" max="5891" width="144.85546875" style="19" customWidth="1"/>
-    <col min="5892" max="6145" width="8.7109375" style="19"/>
-    <col min="6146" max="6146" width="11.140625" style="19" customWidth="1"/>
-    <col min="6147" max="6147" width="144.85546875" style="19" customWidth="1"/>
-    <col min="6148" max="6401" width="8.7109375" style="19"/>
-    <col min="6402" max="6402" width="11.140625" style="19" customWidth="1"/>
-    <col min="6403" max="6403" width="144.85546875" style="19" customWidth="1"/>
-    <col min="6404" max="6657" width="8.7109375" style="19"/>
-    <col min="6658" max="6658" width="11.140625" style="19" customWidth="1"/>
-    <col min="6659" max="6659" width="144.85546875" style="19" customWidth="1"/>
-    <col min="6660" max="6913" width="8.7109375" style="19"/>
-    <col min="6914" max="6914" width="11.140625" style="19" customWidth="1"/>
-    <col min="6915" max="6915" width="144.85546875" style="19" customWidth="1"/>
-    <col min="6916" max="7169" width="8.7109375" style="19"/>
-    <col min="7170" max="7170" width="11.140625" style="19" customWidth="1"/>
-    <col min="7171" max="7171" width="144.85546875" style="19" customWidth="1"/>
-    <col min="7172" max="7425" width="8.7109375" style="19"/>
-    <col min="7426" max="7426" width="11.140625" style="19" customWidth="1"/>
-    <col min="7427" max="7427" width="144.85546875" style="19" customWidth="1"/>
-    <col min="7428" max="7681" width="8.7109375" style="19"/>
-    <col min="7682" max="7682" width="11.140625" style="19" customWidth="1"/>
-    <col min="7683" max="7683" width="144.85546875" style="19" customWidth="1"/>
-    <col min="7684" max="7937" width="8.7109375" style="19"/>
-    <col min="7938" max="7938" width="11.140625" style="19" customWidth="1"/>
-    <col min="7939" max="7939" width="144.85546875" style="19" customWidth="1"/>
-    <col min="7940" max="8193" width="8.7109375" style="19"/>
-    <col min="8194" max="8194" width="11.140625" style="19" customWidth="1"/>
-    <col min="8195" max="8195" width="144.85546875" style="19" customWidth="1"/>
-    <col min="8196" max="8449" width="8.7109375" style="19"/>
-    <col min="8450" max="8450" width="11.140625" style="19" customWidth="1"/>
-    <col min="8451" max="8451" width="144.85546875" style="19" customWidth="1"/>
-    <col min="8452" max="8705" width="8.7109375" style="19"/>
-    <col min="8706" max="8706" width="11.140625" style="19" customWidth="1"/>
-    <col min="8707" max="8707" width="144.85546875" style="19" customWidth="1"/>
-    <col min="8708" max="8961" width="8.7109375" style="19"/>
-    <col min="8962" max="8962" width="11.140625" style="19" customWidth="1"/>
-    <col min="8963" max="8963" width="144.85546875" style="19" customWidth="1"/>
-    <col min="8964" max="9217" width="8.7109375" style="19"/>
-    <col min="9218" max="9218" width="11.140625" style="19" customWidth="1"/>
-    <col min="9219" max="9219" width="144.85546875" style="19" customWidth="1"/>
-    <col min="9220" max="9473" width="8.7109375" style="19"/>
-    <col min="9474" max="9474" width="11.140625" style="19" customWidth="1"/>
-    <col min="9475" max="9475" width="144.85546875" style="19" customWidth="1"/>
-    <col min="9476" max="9729" width="8.7109375" style="19"/>
-    <col min="9730" max="9730" width="11.140625" style="19" customWidth="1"/>
-    <col min="9731" max="9731" width="144.85546875" style="19" customWidth="1"/>
-    <col min="9732" max="9985" width="8.7109375" style="19"/>
-    <col min="9986" max="9986" width="11.140625" style="19" customWidth="1"/>
-    <col min="9987" max="9987" width="144.85546875" style="19" customWidth="1"/>
-    <col min="9988" max="10241" width="8.7109375" style="19"/>
-    <col min="10242" max="10242" width="11.140625" style="19" customWidth="1"/>
-    <col min="10243" max="10243" width="144.85546875" style="19" customWidth="1"/>
-    <col min="10244" max="10497" width="8.7109375" style="19"/>
-    <col min="10498" max="10498" width="11.140625" style="19" customWidth="1"/>
-    <col min="10499" max="10499" width="144.85546875" style="19" customWidth="1"/>
-    <col min="10500" max="10753" width="8.7109375" style="19"/>
-    <col min="10754" max="10754" width="11.140625" style="19" customWidth="1"/>
-    <col min="10755" max="10755" width="144.85546875" style="19" customWidth="1"/>
-    <col min="10756" max="11009" width="8.7109375" style="19"/>
-    <col min="11010" max="11010" width="11.140625" style="19" customWidth="1"/>
-    <col min="11011" max="11011" width="144.85546875" style="19" customWidth="1"/>
-    <col min="11012" max="11265" width="8.7109375" style="19"/>
-    <col min="11266" max="11266" width="11.140625" style="19" customWidth="1"/>
-    <col min="11267" max="11267" width="144.85546875" style="19" customWidth="1"/>
-    <col min="11268" max="11521" width="8.7109375" style="19"/>
-    <col min="11522" max="11522" width="11.140625" style="19" customWidth="1"/>
-    <col min="11523" max="11523" width="144.85546875" style="19" customWidth="1"/>
-    <col min="11524" max="11777" width="8.7109375" style="19"/>
-    <col min="11778" max="11778" width="11.140625" style="19" customWidth="1"/>
-    <col min="11779" max="11779" width="144.85546875" style="19" customWidth="1"/>
-    <col min="11780" max="12033" width="8.7109375" style="19"/>
-    <col min="12034" max="12034" width="11.140625" style="19" customWidth="1"/>
-    <col min="12035" max="12035" width="144.85546875" style="19" customWidth="1"/>
-    <col min="12036" max="12289" width="8.7109375" style="19"/>
-    <col min="12290" max="12290" width="11.140625" style="19" customWidth="1"/>
-    <col min="12291" max="12291" width="144.85546875" style="19" customWidth="1"/>
-    <col min="12292" max="12545" width="8.7109375" style="19"/>
-    <col min="12546" max="12546" width="11.140625" style="19" customWidth="1"/>
-    <col min="12547" max="12547" width="144.85546875" style="19" customWidth="1"/>
-    <col min="12548" max="12801" width="8.7109375" style="19"/>
-    <col min="12802" max="12802" width="11.140625" style="19" customWidth="1"/>
-    <col min="12803" max="12803" width="144.85546875" style="19" customWidth="1"/>
-    <col min="12804" max="13057" width="8.7109375" style="19"/>
-    <col min="13058" max="13058" width="11.140625" style="19" customWidth="1"/>
-    <col min="13059" max="13059" width="144.85546875" style="19" customWidth="1"/>
-    <col min="13060" max="13313" width="8.7109375" style="19"/>
-    <col min="13314" max="13314" width="11.140625" style="19" customWidth="1"/>
-    <col min="13315" max="13315" width="144.85546875" style="19" customWidth="1"/>
-    <col min="13316" max="13569" width="8.7109375" style="19"/>
-    <col min="13570" max="13570" width="11.140625" style="19" customWidth="1"/>
-    <col min="13571" max="13571" width="144.85546875" style="19" customWidth="1"/>
-    <col min="13572" max="13825" width="8.7109375" style="19"/>
-    <col min="13826" max="13826" width="11.140625" style="19" customWidth="1"/>
-    <col min="13827" max="13827" width="144.85546875" style="19" customWidth="1"/>
-    <col min="13828" max="14081" width="8.7109375" style="19"/>
-    <col min="14082" max="14082" width="11.140625" style="19" customWidth="1"/>
-    <col min="14083" max="14083" width="144.85546875" style="19" customWidth="1"/>
-    <col min="14084" max="14337" width="8.7109375" style="19"/>
-    <col min="14338" max="14338" width="11.140625" style="19" customWidth="1"/>
-    <col min="14339" max="14339" width="144.85546875" style="19" customWidth="1"/>
-    <col min="14340" max="14593" width="8.7109375" style="19"/>
-    <col min="14594" max="14594" width="11.140625" style="19" customWidth="1"/>
-    <col min="14595" max="14595" width="144.85546875" style="19" customWidth="1"/>
-    <col min="14596" max="14849" width="8.7109375" style="19"/>
-    <col min="14850" max="14850" width="11.140625" style="19" customWidth="1"/>
-    <col min="14851" max="14851" width="144.85546875" style="19" customWidth="1"/>
-    <col min="14852" max="15105" width="8.7109375" style="19"/>
-    <col min="15106" max="15106" width="11.140625" style="19" customWidth="1"/>
-    <col min="15107" max="15107" width="144.85546875" style="19" customWidth="1"/>
-    <col min="15108" max="15361" width="8.7109375" style="19"/>
-    <col min="15362" max="15362" width="11.140625" style="19" customWidth="1"/>
-    <col min="15363" max="15363" width="144.85546875" style="19" customWidth="1"/>
-    <col min="15364" max="15617" width="8.7109375" style="19"/>
-    <col min="15618" max="15618" width="11.140625" style="19" customWidth="1"/>
-    <col min="15619" max="15619" width="144.85546875" style="19" customWidth="1"/>
-    <col min="15620" max="15873" width="8.7109375" style="19"/>
-    <col min="15874" max="15874" width="11.140625" style="19" customWidth="1"/>
-    <col min="15875" max="15875" width="144.85546875" style="19" customWidth="1"/>
-    <col min="15876" max="16129" width="8.7109375" style="19"/>
-    <col min="16130" max="16130" width="11.140625" style="19" customWidth="1"/>
-    <col min="16131" max="16131" width="144.85546875" style="19" customWidth="1"/>
-    <col min="16132" max="16384" width="8.7109375" style="19"/>
+    <col min="1" max="1" width="8.6640625" style="16"/>
+    <col min="2" max="2" width="11.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="144.83203125" style="16" customWidth="1"/>
+    <col min="4" max="257" width="8.6640625" style="17"/>
+    <col min="258" max="258" width="11.1640625" style="17" customWidth="1"/>
+    <col min="259" max="259" width="144.83203125" style="17" customWidth="1"/>
+    <col min="260" max="513" width="8.6640625" style="17"/>
+    <col min="514" max="514" width="11.1640625" style="17" customWidth="1"/>
+    <col min="515" max="515" width="144.83203125" style="17" customWidth="1"/>
+    <col min="516" max="769" width="8.6640625" style="17"/>
+    <col min="770" max="770" width="11.1640625" style="17" customWidth="1"/>
+    <col min="771" max="771" width="144.83203125" style="17" customWidth="1"/>
+    <col min="772" max="1025" width="8.6640625" style="17"/>
+    <col min="1026" max="1026" width="11.1640625" style="17" customWidth="1"/>
+    <col min="1027" max="1027" width="144.83203125" style="17" customWidth="1"/>
+    <col min="1028" max="1281" width="8.6640625" style="17"/>
+    <col min="1282" max="1282" width="11.1640625" style="17" customWidth="1"/>
+    <col min="1283" max="1283" width="144.83203125" style="17" customWidth="1"/>
+    <col min="1284" max="1537" width="8.6640625" style="17"/>
+    <col min="1538" max="1538" width="11.1640625" style="17" customWidth="1"/>
+    <col min="1539" max="1539" width="144.83203125" style="17" customWidth="1"/>
+    <col min="1540" max="1793" width="8.6640625" style="17"/>
+    <col min="1794" max="1794" width="11.1640625" style="17" customWidth="1"/>
+    <col min="1795" max="1795" width="144.83203125" style="17" customWidth="1"/>
+    <col min="1796" max="2049" width="8.6640625" style="17"/>
+    <col min="2050" max="2050" width="11.1640625" style="17" customWidth="1"/>
+    <col min="2051" max="2051" width="144.83203125" style="17" customWidth="1"/>
+    <col min="2052" max="2305" width="8.6640625" style="17"/>
+    <col min="2306" max="2306" width="11.1640625" style="17" customWidth="1"/>
+    <col min="2307" max="2307" width="144.83203125" style="17" customWidth="1"/>
+    <col min="2308" max="2561" width="8.6640625" style="17"/>
+    <col min="2562" max="2562" width="11.1640625" style="17" customWidth="1"/>
+    <col min="2563" max="2563" width="144.83203125" style="17" customWidth="1"/>
+    <col min="2564" max="2817" width="8.6640625" style="17"/>
+    <col min="2818" max="2818" width="11.1640625" style="17" customWidth="1"/>
+    <col min="2819" max="2819" width="144.83203125" style="17" customWidth="1"/>
+    <col min="2820" max="3073" width="8.6640625" style="17"/>
+    <col min="3074" max="3074" width="11.1640625" style="17" customWidth="1"/>
+    <col min="3075" max="3075" width="144.83203125" style="17" customWidth="1"/>
+    <col min="3076" max="3329" width="8.6640625" style="17"/>
+    <col min="3330" max="3330" width="11.1640625" style="17" customWidth="1"/>
+    <col min="3331" max="3331" width="144.83203125" style="17" customWidth="1"/>
+    <col min="3332" max="3585" width="8.6640625" style="17"/>
+    <col min="3586" max="3586" width="11.1640625" style="17" customWidth="1"/>
+    <col min="3587" max="3587" width="144.83203125" style="17" customWidth="1"/>
+    <col min="3588" max="3841" width="8.6640625" style="17"/>
+    <col min="3842" max="3842" width="11.1640625" style="17" customWidth="1"/>
+    <col min="3843" max="3843" width="144.83203125" style="17" customWidth="1"/>
+    <col min="3844" max="4097" width="8.6640625" style="17"/>
+    <col min="4098" max="4098" width="11.1640625" style="17" customWidth="1"/>
+    <col min="4099" max="4099" width="144.83203125" style="17" customWidth="1"/>
+    <col min="4100" max="4353" width="8.6640625" style="17"/>
+    <col min="4354" max="4354" width="11.1640625" style="17" customWidth="1"/>
+    <col min="4355" max="4355" width="144.83203125" style="17" customWidth="1"/>
+    <col min="4356" max="4609" width="8.6640625" style="17"/>
+    <col min="4610" max="4610" width="11.1640625" style="17" customWidth="1"/>
+    <col min="4611" max="4611" width="144.83203125" style="17" customWidth="1"/>
+    <col min="4612" max="4865" width="8.6640625" style="17"/>
+    <col min="4866" max="4866" width="11.1640625" style="17" customWidth="1"/>
+    <col min="4867" max="4867" width="144.83203125" style="17" customWidth="1"/>
+    <col min="4868" max="5121" width="8.6640625" style="17"/>
+    <col min="5122" max="5122" width="11.1640625" style="17" customWidth="1"/>
+    <col min="5123" max="5123" width="144.83203125" style="17" customWidth="1"/>
+    <col min="5124" max="5377" width="8.6640625" style="17"/>
+    <col min="5378" max="5378" width="11.1640625" style="17" customWidth="1"/>
+    <col min="5379" max="5379" width="144.83203125" style="17" customWidth="1"/>
+    <col min="5380" max="5633" width="8.6640625" style="17"/>
+    <col min="5634" max="5634" width="11.1640625" style="17" customWidth="1"/>
+    <col min="5635" max="5635" width="144.83203125" style="17" customWidth="1"/>
+    <col min="5636" max="5889" width="8.6640625" style="17"/>
+    <col min="5890" max="5890" width="11.1640625" style="17" customWidth="1"/>
+    <col min="5891" max="5891" width="144.83203125" style="17" customWidth="1"/>
+    <col min="5892" max="6145" width="8.6640625" style="17"/>
+    <col min="6146" max="6146" width="11.1640625" style="17" customWidth="1"/>
+    <col min="6147" max="6147" width="144.83203125" style="17" customWidth="1"/>
+    <col min="6148" max="6401" width="8.6640625" style="17"/>
+    <col min="6402" max="6402" width="11.1640625" style="17" customWidth="1"/>
+    <col min="6403" max="6403" width="144.83203125" style="17" customWidth="1"/>
+    <col min="6404" max="6657" width="8.6640625" style="17"/>
+    <col min="6658" max="6658" width="11.1640625" style="17" customWidth="1"/>
+    <col min="6659" max="6659" width="144.83203125" style="17" customWidth="1"/>
+    <col min="6660" max="6913" width="8.6640625" style="17"/>
+    <col min="6914" max="6914" width="11.1640625" style="17" customWidth="1"/>
+    <col min="6915" max="6915" width="144.83203125" style="17" customWidth="1"/>
+    <col min="6916" max="7169" width="8.6640625" style="17"/>
+    <col min="7170" max="7170" width="11.1640625" style="17" customWidth="1"/>
+    <col min="7171" max="7171" width="144.83203125" style="17" customWidth="1"/>
+    <col min="7172" max="7425" width="8.6640625" style="17"/>
+    <col min="7426" max="7426" width="11.1640625" style="17" customWidth="1"/>
+    <col min="7427" max="7427" width="144.83203125" style="17" customWidth="1"/>
+    <col min="7428" max="7681" width="8.6640625" style="17"/>
+    <col min="7682" max="7682" width="11.1640625" style="17" customWidth="1"/>
+    <col min="7683" max="7683" width="144.83203125" style="17" customWidth="1"/>
+    <col min="7684" max="7937" width="8.6640625" style="17"/>
+    <col min="7938" max="7938" width="11.1640625" style="17" customWidth="1"/>
+    <col min="7939" max="7939" width="144.83203125" style="17" customWidth="1"/>
+    <col min="7940" max="8193" width="8.6640625" style="17"/>
+    <col min="8194" max="8194" width="11.1640625" style="17" customWidth="1"/>
+    <col min="8195" max="8195" width="144.83203125" style="17" customWidth="1"/>
+    <col min="8196" max="8449" width="8.6640625" style="17"/>
+    <col min="8450" max="8450" width="11.1640625" style="17" customWidth="1"/>
+    <col min="8451" max="8451" width="144.83203125" style="17" customWidth="1"/>
+    <col min="8452" max="8705" width="8.6640625" style="17"/>
+    <col min="8706" max="8706" width="11.1640625" style="17" customWidth="1"/>
+    <col min="8707" max="8707" width="144.83203125" style="17" customWidth="1"/>
+    <col min="8708" max="8961" width="8.6640625" style="17"/>
+    <col min="8962" max="8962" width="11.1640625" style="17" customWidth="1"/>
+    <col min="8963" max="8963" width="144.83203125" style="17" customWidth="1"/>
+    <col min="8964" max="9217" width="8.6640625" style="17"/>
+    <col min="9218" max="9218" width="11.1640625" style="17" customWidth="1"/>
+    <col min="9219" max="9219" width="144.83203125" style="17" customWidth="1"/>
+    <col min="9220" max="9473" width="8.6640625" style="17"/>
+    <col min="9474" max="9474" width="11.1640625" style="17" customWidth="1"/>
+    <col min="9475" max="9475" width="144.83203125" style="17" customWidth="1"/>
+    <col min="9476" max="9729" width="8.6640625" style="17"/>
+    <col min="9730" max="9730" width="11.1640625" style="17" customWidth="1"/>
+    <col min="9731" max="9731" width="144.83203125" style="17" customWidth="1"/>
+    <col min="9732" max="9985" width="8.6640625" style="17"/>
+    <col min="9986" max="9986" width="11.1640625" style="17" customWidth="1"/>
+    <col min="9987" max="9987" width="144.83203125" style="17" customWidth="1"/>
+    <col min="9988" max="10241" width="8.6640625" style="17"/>
+    <col min="10242" max="10242" width="11.1640625" style="17" customWidth="1"/>
+    <col min="10243" max="10243" width="144.83203125" style="17" customWidth="1"/>
+    <col min="10244" max="10497" width="8.6640625" style="17"/>
+    <col min="10498" max="10498" width="11.1640625" style="17" customWidth="1"/>
+    <col min="10499" max="10499" width="144.83203125" style="17" customWidth="1"/>
+    <col min="10500" max="10753" width="8.6640625" style="17"/>
+    <col min="10754" max="10754" width="11.1640625" style="17" customWidth="1"/>
+    <col min="10755" max="10755" width="144.83203125" style="17" customWidth="1"/>
+    <col min="10756" max="11009" width="8.6640625" style="17"/>
+    <col min="11010" max="11010" width="11.1640625" style="17" customWidth="1"/>
+    <col min="11011" max="11011" width="144.83203125" style="17" customWidth="1"/>
+    <col min="11012" max="11265" width="8.6640625" style="17"/>
+    <col min="11266" max="11266" width="11.1640625" style="17" customWidth="1"/>
+    <col min="11267" max="11267" width="144.83203125" style="17" customWidth="1"/>
+    <col min="11268" max="11521" width="8.6640625" style="17"/>
+    <col min="11522" max="11522" width="11.1640625" style="17" customWidth="1"/>
+    <col min="11523" max="11523" width="144.83203125" style="17" customWidth="1"/>
+    <col min="11524" max="11777" width="8.6640625" style="17"/>
+    <col min="11778" max="11778" width="11.1640625" style="17" customWidth="1"/>
+    <col min="11779" max="11779" width="144.83203125" style="17" customWidth="1"/>
+    <col min="11780" max="12033" width="8.6640625" style="17"/>
+    <col min="12034" max="12034" width="11.1640625" style="17" customWidth="1"/>
+    <col min="12035" max="12035" width="144.83203125" style="17" customWidth="1"/>
+    <col min="12036" max="12289" width="8.6640625" style="17"/>
+    <col min="12290" max="12290" width="11.1640625" style="17" customWidth="1"/>
+    <col min="12291" max="12291" width="144.83203125" style="17" customWidth="1"/>
+    <col min="12292" max="12545" width="8.6640625" style="17"/>
+    <col min="12546" max="12546" width="11.1640625" style="17" customWidth="1"/>
+    <col min="12547" max="12547" width="144.83203125" style="17" customWidth="1"/>
+    <col min="12548" max="12801" width="8.6640625" style="17"/>
+    <col min="12802" max="12802" width="11.1640625" style="17" customWidth="1"/>
+    <col min="12803" max="12803" width="144.83203125" style="17" customWidth="1"/>
+    <col min="12804" max="13057" width="8.6640625" style="17"/>
+    <col min="13058" max="13058" width="11.1640625" style="17" customWidth="1"/>
+    <col min="13059" max="13059" width="144.83203125" style="17" customWidth="1"/>
+    <col min="13060" max="13313" width="8.6640625" style="17"/>
+    <col min="13314" max="13314" width="11.1640625" style="17" customWidth="1"/>
+    <col min="13315" max="13315" width="144.83203125" style="17" customWidth="1"/>
+    <col min="13316" max="13569" width="8.6640625" style="17"/>
+    <col min="13570" max="13570" width="11.1640625" style="17" customWidth="1"/>
+    <col min="13571" max="13571" width="144.83203125" style="17" customWidth="1"/>
+    <col min="13572" max="13825" width="8.6640625" style="17"/>
+    <col min="13826" max="13826" width="11.1640625" style="17" customWidth="1"/>
+    <col min="13827" max="13827" width="144.83203125" style="17" customWidth="1"/>
+    <col min="13828" max="14081" width="8.6640625" style="17"/>
+    <col min="14082" max="14082" width="11.1640625" style="17" customWidth="1"/>
+    <col min="14083" max="14083" width="144.83203125" style="17" customWidth="1"/>
+    <col min="14084" max="14337" width="8.6640625" style="17"/>
+    <col min="14338" max="14338" width="11.1640625" style="17" customWidth="1"/>
+    <col min="14339" max="14339" width="144.83203125" style="17" customWidth="1"/>
+    <col min="14340" max="14593" width="8.6640625" style="17"/>
+    <col min="14594" max="14594" width="11.1640625" style="17" customWidth="1"/>
+    <col min="14595" max="14595" width="144.83203125" style="17" customWidth="1"/>
+    <col min="14596" max="14849" width="8.6640625" style="17"/>
+    <col min="14850" max="14850" width="11.1640625" style="17" customWidth="1"/>
+    <col min="14851" max="14851" width="144.83203125" style="17" customWidth="1"/>
+    <col min="14852" max="15105" width="8.6640625" style="17"/>
+    <col min="15106" max="15106" width="11.1640625" style="17" customWidth="1"/>
+    <col min="15107" max="15107" width="144.83203125" style="17" customWidth="1"/>
+    <col min="15108" max="15361" width="8.6640625" style="17"/>
+    <col min="15362" max="15362" width="11.1640625" style="17" customWidth="1"/>
+    <col min="15363" max="15363" width="144.83203125" style="17" customWidth="1"/>
+    <col min="15364" max="15617" width="8.6640625" style="17"/>
+    <col min="15618" max="15618" width="11.1640625" style="17" customWidth="1"/>
+    <col min="15619" max="15619" width="144.83203125" style="17" customWidth="1"/>
+    <col min="15620" max="15873" width="8.6640625" style="17"/>
+    <col min="15874" max="15874" width="11.1640625" style="17" customWidth="1"/>
+    <col min="15875" max="15875" width="144.83203125" style="17" customWidth="1"/>
+    <col min="15876" max="16129" width="8.6640625" style="17"/>
+    <col min="16130" max="16130" width="11.1640625" style="17" customWidth="1"/>
+    <col min="16131" max="16131" width="144.83203125" style="17" customWidth="1"/>
+    <col min="16132" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="12">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+    <row r="2" spans="1:3" ht="12">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+    <row r="3" spans="1:3" ht="132">
+      <c r="A3" s="16">
         <v>72001</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:3" ht="132">
+      <c r="A4" s="16">
         <v>72006</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+    <row r="5" spans="1:3" ht="132">
+      <c r="A5" s="16">
         <v>72011</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" spans="1:3" ht="132">
+      <c r="A6" s="16">
         <v>72016</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+    <row r="7" spans="1:3" ht="132">
+      <c r="A7" s="16">
         <v>72021</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:3" ht="132">
+      <c r="A8" s="16">
         <v>72026</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:3" ht="132">
+      <c r="A9" s="16">
         <v>72031</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:3" ht="132">
+      <c r="A10" s="16">
         <v>72036</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="135" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:3" ht="132">
+      <c r="A11" s="16">
         <v>72041</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+    <row r="12" spans="1:3" ht="72">
+      <c r="A12" s="16">
         <v>72046</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:3" ht="72">
+      <c r="A13" s="16">
         <v>72051</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+    <row r="14" spans="1:3" ht="72">
+      <c r="A14" s="16">
         <v>72056</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+    <row r="15" spans="1:3" ht="72">
+      <c r="A15" s="16">
         <v>72061</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:3" ht="72">
+      <c r="A16" s="16">
         <v>72066</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+    <row r="17" spans="1:3" ht="72">
+      <c r="A17" s="17">
         <v>72071</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+    <row r="18" spans="1:3" ht="72">
+      <c r="A18" s="17">
         <v>72076</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+    <row r="19" spans="1:3" ht="72">
+      <c r="A19" s="17">
         <v>72081</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+    <row r="20" spans="1:3" ht="72">
+      <c r="A20" s="17">
         <v>72086</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-    </row>
-    <row r="81" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" s="17" customFormat="1"/>
+    <row r="34" s="17" customFormat="1"/>
+    <row r="35" s="17" customFormat="1"/>
+    <row r="36" s="17" customFormat="1"/>
+    <row r="37" s="17" customFormat="1"/>
+    <row r="38" s="17" customFormat="1"/>
+    <row r="39" s="17" customFormat="1"/>
+    <row r="40" s="17" customFormat="1"/>
+    <row r="41" s="17" customFormat="1"/>
+    <row r="42" s="17" customFormat="1"/>
+    <row r="43" s="17" customFormat="1"/>
+    <row r="44" s="17" customFormat="1"/>
+    <row r="45" s="17" customFormat="1"/>
+    <row r="46" s="17" customFormat="1"/>
+    <row r="47" s="17" customFormat="1"/>
+    <row r="48" s="17" customFormat="1"/>
+    <row r="49" s="17" customFormat="1"/>
+    <row r="50" s="17" customFormat="1"/>
+    <row r="51" s="17" customFormat="1"/>
+    <row r="52" s="17" customFormat="1"/>
+    <row r="53" s="17" customFormat="1"/>
+    <row r="54" s="17" customFormat="1"/>
+    <row r="55" s="17" customFormat="1"/>
+    <row r="56" s="17" customFormat="1"/>
+    <row r="57" s="17" customFormat="1"/>
+    <row r="58" s="17" customFormat="1"/>
+    <row r="59" s="17" customFormat="1"/>
+    <row r="60" s="17" customFormat="1"/>
+    <row r="61" s="17" customFormat="1"/>
+    <row r="62" s="17" customFormat="1"/>
+    <row r="63" s="17" customFormat="1"/>
+    <row r="64" s="17" customFormat="1"/>
+    <row r="65" s="17" customFormat="1"/>
+    <row r="66" s="17" customFormat="1"/>
+    <row r="67" s="17" customFormat="1"/>
+    <row r="68" s="17" customFormat="1"/>
+    <row r="69" s="17" customFormat="1"/>
+    <row r="70" s="17" customFormat="1"/>
+    <row r="71" s="17" customFormat="1"/>
+    <row r="72" s="17" customFormat="1"/>
+    <row r="73" s="17" customFormat="1"/>
+    <row r="74" s="17" customFormat="1"/>
+    <row r="75" s="17" customFormat="1"/>
+    <row r="76" s="17" customFormat="1"/>
+    <row r="77" s="17" customFormat="1"/>
+    <row r="78" s="17" customFormat="1"/>
+    <row r="79" s="17" customFormat="1"/>
+    <row r="80" s="17" customFormat="1"/>
+    <row r="81" s="17" customFormat="1"/>
+    <row r="82" s="17" customFormat="1"/>
+    <row r="83" s="17" customFormat="1"/>
+    <row r="84" s="17" customFormat="1"/>
+    <row r="85" s="17" customFormat="1"/>
+    <row r="86" s="17" customFormat="1"/>
+    <row r="87" s="17" customFormat="1"/>
+    <row r="88" s="17" customFormat="1"/>
+    <row r="89" s="17" customFormat="1"/>
+    <row r="90" s="17" customFormat="1"/>
+    <row r="91" s="17" customFormat="1"/>
+    <row r="92" s="17" customFormat="1"/>
+    <row r="93" s="17" customFormat="1"/>
+    <row r="94" s="17" customFormat="1"/>
+    <row r="95" s="17" customFormat="1"/>
+    <row r="96" s="17" customFormat="1"/>
+    <row r="97" s="17" customFormat="1"/>
+    <row r="98" s="17" customFormat="1"/>
+    <row r="99" s="17" customFormat="1"/>
+    <row r="100" s="17" customFormat="1"/>
+    <row r="101" s="17" customFormat="1"/>
+    <row r="102" s="17" customFormat="1"/>
+    <row r="103" s="17" customFormat="1"/>
+    <row r="104" s="17" customFormat="1"/>
+    <row r="105" s="17" customFormat="1"/>
+    <row r="106" s="17" customFormat="1"/>
+    <row r="107" s="17" customFormat="1"/>
+    <row r="108" s="17" customFormat="1"/>
+    <row r="109" s="17" customFormat="1"/>
+    <row r="110" s="17" customFormat="1"/>
+    <row r="111" s="17" customFormat="1"/>
+    <row r="112" s="17" customFormat="1"/>
+    <row r="113" s="17" customFormat="1"/>
+    <row r="114" s="17" customFormat="1"/>
+    <row r="115" s="17" customFormat="1"/>
+    <row r="116" s="17" customFormat="1"/>
+    <row r="117" s="17" customFormat="1"/>
+    <row r="118" s="17" customFormat="1"/>
+    <row r="119" s="17" customFormat="1"/>
+    <row r="120" s="17" customFormat="1"/>
+    <row r="121" s="17" customFormat="1"/>
+    <row r="122" s="17" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -3420,7 +3220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3428,1427 +3228,1427 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="120.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="120.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>72001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>5779</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>401533</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>69.481398165772632</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>12053</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>72006</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>5779</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>3126451367</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>541002.13998961763</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>53795938</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>72011</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>4282</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>44112359</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>10301.812003736572</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>50</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>54687</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>72016</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1997</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>82873</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>41.498748122183272</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>4043</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>72021</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1997</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>870759494</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>436033.79769654479</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>20128420</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>72026</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1567</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>17399935</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>11103.978940650926</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>169</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>59466</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>72031</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>5974</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>484406</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>81.085704720455311</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>15546</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>72036</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>5974</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>3997210861</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>669101.24891195178</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>70755593</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>72041</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>4507</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>46682452</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>10357.766141557577</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>50</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>59466</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>72046</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>5779</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>191640</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>33.161446617061777</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>43467</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>72051</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>5779</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>382664830</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>66216.444021457006</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>85446135</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>72056</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1329</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>2879345</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>2166.5500376222726</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>9</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>4500</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>72061</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>1997</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>32319</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>16.183775663495243</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>7206</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>72066</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>1997</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>71691918</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>35899.808713069608</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>14496287</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>72071</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>609</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>1436616</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>2358.9753694581282</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>180</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>5667</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>72076</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>5974</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>223959</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>37.488952125878811</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>50673</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>72081</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>5974</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>454356748</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>76055.699363910273</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>99942422</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>72086</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>1414</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>3067059</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>2169.0657708628005</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>9</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>4500</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F101" s="11"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F103" s="11"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="11"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F117" s="11"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F119" s="11"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="11"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F121" s="11"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" s="11"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F123" s="11"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F128" s="11"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F131" s="11"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F132" s="11"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" s="11"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F134" s="11"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" s="11"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F136" s="11"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" s="11"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F138" s="11"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F139" s="11"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F141" s="11"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F142" s="11"/>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F143" s="11"/>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F144" s="11"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F145" s="11"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F146" s="11"/>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F147" s="11"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F148" s="11"/>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F149" s="11"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F150" s="11"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F151" s="11"/>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F152" s="11"/>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F153" s="11"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F154" s="11"/>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F155" s="11"/>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F156" s="11"/>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F157" s="11"/>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F158" s="11"/>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F159" s="11"/>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F160" s="11"/>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F161" s="11"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F162" s="11"/>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F163" s="11"/>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F164" s="11"/>
-    </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F165" s="11"/>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F166" s="11"/>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F167" s="11"/>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F168" s="11"/>
-    </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F169" s="11"/>
-    </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F170" s="11"/>
-    </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F171" s="11"/>
-    </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F172" s="11"/>
-    </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F173" s="11"/>
-    </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F174" s="11"/>
-    </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F175" s="11"/>
-    </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F176" s="11"/>
-    </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F177" s="11"/>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F178" s="11"/>
-    </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F179" s="11"/>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F180" s="11"/>
-    </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F181" s="11"/>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F182" s="11"/>
-    </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F183" s="11"/>
-    </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F184" s="11"/>
-    </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F185" s="11"/>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F186" s="11"/>
-    </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F187" s="11"/>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F188" s="11"/>
-    </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F189" s="11"/>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F190" s="11"/>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F191" s="11"/>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F192" s="11"/>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F193" s="11"/>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F194" s="11"/>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F195" s="11"/>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F196" s="11"/>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F197" s="11"/>
-    </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F198" s="11"/>
-    </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F199" s="11"/>
-    </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F200" s="11"/>
-    </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F201" s="11"/>
-    </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F202" s="11"/>
-    </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F203" s="11"/>
-    </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F204" s="11"/>
-    </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F205" s="11"/>
-    </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F206" s="11"/>
-    </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F207" s="11"/>
-    </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F208" s="11"/>
-    </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F209" s="11"/>
-    </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F210" s="11"/>
-    </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F211" s="11"/>
-    </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F212" s="11"/>
-    </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F213" s="11"/>
-    </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F214" s="11"/>
-    </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F215" s="11"/>
-    </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F216" s="11"/>
-    </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F217" s="11"/>
-    </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F218" s="11"/>
-    </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F219" s="11"/>
-    </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F220" s="11"/>
-    </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F221" s="11"/>
-    </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F222" s="11"/>
-    </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F223" s="11"/>
-    </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F224" s="11"/>
-    </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F225" s="11"/>
-    </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F226" s="11"/>
-    </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F227" s="11"/>
-    </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F228" s="11"/>
-    </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F229" s="11"/>
-    </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F230" s="11"/>
-    </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F231" s="11"/>
-    </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F232" s="11"/>
-    </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F233" s="11"/>
-    </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F234" s="11"/>
-    </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F235" s="11"/>
-    </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F236" s="11"/>
-    </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F237" s="11"/>
-    </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F238" s="11"/>
-    </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F239" s="11"/>
-    </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F240" s="11"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F241" s="11"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F242" s="11"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F243" s="11"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F244" s="11"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F245" s="11"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F246" s="11"/>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F247" s="11"/>
-    </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F248" s="11"/>
-    </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F249" s="11"/>
-    </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F250" s="11"/>
-    </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F251" s="11"/>
-    </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F252" s="11"/>
-    </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F253" s="11"/>
-    </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F254" s="11"/>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F255" s="11"/>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F256" s="11"/>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F257" s="11"/>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F258" s="11"/>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F259" s="11"/>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F260" s="11"/>
-    </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F261" s="11"/>
-    </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F262" s="11"/>
-    </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F263" s="11"/>
-    </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F264" s="11"/>
-    </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F265" s="11"/>
-    </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F266" s="11"/>
-    </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F267" s="11"/>
-    </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F268" s="11"/>
-    </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F269" s="11"/>
-    </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F270" s="11"/>
-    </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F271" s="11"/>
-    </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F272" s="11"/>
-    </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F273" s="11"/>
-    </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F274" s="11"/>
-    </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F275" s="11"/>
-    </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F276" s="11"/>
-    </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F277" s="11"/>
-    </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F278" s="11"/>
-    </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F279" s="11"/>
-    </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F280" s="11"/>
-    </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F281" s="11"/>
-    </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F282" s="11"/>
-    </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F283" s="11"/>
-    </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F284" s="11"/>
-    </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F285" s="11"/>
-    </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F286" s="11"/>
-    </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F287" s="11"/>
-    </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F288" s="11"/>
-    </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F289" s="11"/>
-    </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F290" s="11"/>
-    </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F291" s="11"/>
-    </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F292" s="11"/>
-    </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F293" s="11"/>
-    </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F294" s="11"/>
-    </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F295" s="11"/>
-    </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F296" s="11"/>
-    </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F297" s="11"/>
-    </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F298" s="11"/>
-    </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F299" s="11"/>
-    </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F300" s="11"/>
-    </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F301" s="11"/>
-    </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F302" s="11"/>
-    </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F303" s="11"/>
-    </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F304" s="11"/>
-    </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F305" s="11"/>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F306" s="11"/>
-    </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F307" s="11"/>
-    </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F308" s="11"/>
-    </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F309" s="11"/>
-    </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F310" s="11"/>
-    </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F311" s="11"/>
-    </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F312" s="11"/>
-    </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F313" s="11"/>
-    </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F314" s="11"/>
-    </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F315" s="11"/>
-    </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F316" s="11"/>
-    </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F317" s="11"/>
-    </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F318" s="11"/>
-    </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F319" s="11"/>
-    </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F320" s="11"/>
-    </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F321" s="11"/>
-    </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F322" s="11"/>
-    </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F323" s="11"/>
-    </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F324" s="11"/>
+    <row r="20" spans="1:8">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" s="10"/>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" s="10"/>
+    </row>
+    <row r="145" spans="6:6">
+      <c r="F145" s="10"/>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" s="10"/>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="10"/>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="10"/>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" s="10"/>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="10"/>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="10"/>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" spans="6:6">
+      <c r="F156" s="10"/>
+    </row>
+    <row r="157" spans="6:6">
+      <c r="F157" s="10"/>
+    </row>
+    <row r="158" spans="6:6">
+      <c r="F158" s="10"/>
+    </row>
+    <row r="159" spans="6:6">
+      <c r="F159" s="10"/>
+    </row>
+    <row r="160" spans="6:6">
+      <c r="F160" s="10"/>
+    </row>
+    <row r="161" spans="6:6">
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" spans="6:6">
+      <c r="F162" s="10"/>
+    </row>
+    <row r="163" spans="6:6">
+      <c r="F163" s="10"/>
+    </row>
+    <row r="164" spans="6:6">
+      <c r="F164" s="10"/>
+    </row>
+    <row r="165" spans="6:6">
+      <c r="F165" s="10"/>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" s="10"/>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" s="10"/>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" s="10"/>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" s="10"/>
+    </row>
+    <row r="170" spans="6:6">
+      <c r="F170" s="10"/>
+    </row>
+    <row r="171" spans="6:6">
+      <c r="F171" s="10"/>
+    </row>
+    <row r="172" spans="6:6">
+      <c r="F172" s="10"/>
+    </row>
+    <row r="173" spans="6:6">
+      <c r="F173" s="10"/>
+    </row>
+    <row r="174" spans="6:6">
+      <c r="F174" s="10"/>
+    </row>
+    <row r="175" spans="6:6">
+      <c r="F175" s="10"/>
+    </row>
+    <row r="176" spans="6:6">
+      <c r="F176" s="10"/>
+    </row>
+    <row r="177" spans="6:6">
+      <c r="F177" s="10"/>
+    </row>
+    <row r="178" spans="6:6">
+      <c r="F178" s="10"/>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" s="10"/>
+    </row>
+    <row r="180" spans="6:6">
+      <c r="F180" s="10"/>
+    </row>
+    <row r="181" spans="6:6">
+      <c r="F181" s="10"/>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="10"/>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" s="10"/>
+    </row>
+    <row r="184" spans="6:6">
+      <c r="F184" s="10"/>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" s="10"/>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" s="10"/>
+    </row>
+    <row r="187" spans="6:6">
+      <c r="F187" s="10"/>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" s="10"/>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" s="10"/>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" s="10"/>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" s="10"/>
+    </row>
+    <row r="192" spans="6:6">
+      <c r="F192" s="10"/>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" s="10"/>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" s="10"/>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" s="10"/>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="10"/>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="10"/>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" s="10"/>
+    </row>
+    <row r="199" spans="6:6">
+      <c r="F199" s="10"/>
+    </row>
+    <row r="200" spans="6:6">
+      <c r="F200" s="10"/>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" s="10"/>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" s="10"/>
+    </row>
+    <row r="203" spans="6:6">
+      <c r="F203" s="10"/>
+    </row>
+    <row r="204" spans="6:6">
+      <c r="F204" s="10"/>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" s="10"/>
+    </row>
+    <row r="206" spans="6:6">
+      <c r="F206" s="10"/>
+    </row>
+    <row r="207" spans="6:6">
+      <c r="F207" s="10"/>
+    </row>
+    <row r="208" spans="6:6">
+      <c r="F208" s="10"/>
+    </row>
+    <row r="209" spans="6:6">
+      <c r="F209" s="10"/>
+    </row>
+    <row r="210" spans="6:6">
+      <c r="F210" s="10"/>
+    </row>
+    <row r="211" spans="6:6">
+      <c r="F211" s="10"/>
+    </row>
+    <row r="212" spans="6:6">
+      <c r="F212" s="10"/>
+    </row>
+    <row r="213" spans="6:6">
+      <c r="F213" s="10"/>
+    </row>
+    <row r="214" spans="6:6">
+      <c r="F214" s="10"/>
+    </row>
+    <row r="215" spans="6:6">
+      <c r="F215" s="10"/>
+    </row>
+    <row r="216" spans="6:6">
+      <c r="F216" s="10"/>
+    </row>
+    <row r="217" spans="6:6">
+      <c r="F217" s="10"/>
+    </row>
+    <row r="218" spans="6:6">
+      <c r="F218" s="10"/>
+    </row>
+    <row r="219" spans="6:6">
+      <c r="F219" s="10"/>
+    </row>
+    <row r="220" spans="6:6">
+      <c r="F220" s="10"/>
+    </row>
+    <row r="221" spans="6:6">
+      <c r="F221" s="10"/>
+    </row>
+    <row r="222" spans="6:6">
+      <c r="F222" s="10"/>
+    </row>
+    <row r="223" spans="6:6">
+      <c r="F223" s="10"/>
+    </row>
+    <row r="224" spans="6:6">
+      <c r="F224" s="10"/>
+    </row>
+    <row r="225" spans="6:6">
+      <c r="F225" s="10"/>
+    </row>
+    <row r="226" spans="6:6">
+      <c r="F226" s="10"/>
+    </row>
+    <row r="227" spans="6:6">
+      <c r="F227" s="10"/>
+    </row>
+    <row r="228" spans="6:6">
+      <c r="F228" s="10"/>
+    </row>
+    <row r="229" spans="6:6">
+      <c r="F229" s="10"/>
+    </row>
+    <row r="230" spans="6:6">
+      <c r="F230" s="10"/>
+    </row>
+    <row r="231" spans="6:6">
+      <c r="F231" s="10"/>
+    </row>
+    <row r="232" spans="6:6">
+      <c r="F232" s="10"/>
+    </row>
+    <row r="233" spans="6:6">
+      <c r="F233" s="10"/>
+    </row>
+    <row r="234" spans="6:6">
+      <c r="F234" s="10"/>
+    </row>
+    <row r="235" spans="6:6">
+      <c r="F235" s="10"/>
+    </row>
+    <row r="236" spans="6:6">
+      <c r="F236" s="10"/>
+    </row>
+    <row r="237" spans="6:6">
+      <c r="F237" s="10"/>
+    </row>
+    <row r="238" spans="6:6">
+      <c r="F238" s="10"/>
+    </row>
+    <row r="239" spans="6:6">
+      <c r="F239" s="10"/>
+    </row>
+    <row r="240" spans="6:6">
+      <c r="F240" s="10"/>
+    </row>
+    <row r="241" spans="6:6">
+      <c r="F241" s="10"/>
+    </row>
+    <row r="242" spans="6:6">
+      <c r="F242" s="10"/>
+    </row>
+    <row r="243" spans="6:6">
+      <c r="F243" s="10"/>
+    </row>
+    <row r="244" spans="6:6">
+      <c r="F244" s="10"/>
+    </row>
+    <row r="245" spans="6:6">
+      <c r="F245" s="10"/>
+    </row>
+    <row r="246" spans="6:6">
+      <c r="F246" s="10"/>
+    </row>
+    <row r="247" spans="6:6">
+      <c r="F247" s="10"/>
+    </row>
+    <row r="248" spans="6:6">
+      <c r="F248" s="10"/>
+    </row>
+    <row r="249" spans="6:6">
+      <c r="F249" s="10"/>
+    </row>
+    <row r="250" spans="6:6">
+      <c r="F250" s="10"/>
+    </row>
+    <row r="251" spans="6:6">
+      <c r="F251" s="10"/>
+    </row>
+    <row r="252" spans="6:6">
+      <c r="F252" s="10"/>
+    </row>
+    <row r="253" spans="6:6">
+      <c r="F253" s="10"/>
+    </row>
+    <row r="254" spans="6:6">
+      <c r="F254" s="10"/>
+    </row>
+    <row r="255" spans="6:6">
+      <c r="F255" s="10"/>
+    </row>
+    <row r="256" spans="6:6">
+      <c r="F256" s="10"/>
+    </row>
+    <row r="257" spans="6:6">
+      <c r="F257" s="10"/>
+    </row>
+    <row r="258" spans="6:6">
+      <c r="F258" s="10"/>
+    </row>
+    <row r="259" spans="6:6">
+      <c r="F259" s="10"/>
+    </row>
+    <row r="260" spans="6:6">
+      <c r="F260" s="10"/>
+    </row>
+    <row r="261" spans="6:6">
+      <c r="F261" s="10"/>
+    </row>
+    <row r="262" spans="6:6">
+      <c r="F262" s="10"/>
+    </row>
+    <row r="263" spans="6:6">
+      <c r="F263" s="10"/>
+    </row>
+    <row r="264" spans="6:6">
+      <c r="F264" s="10"/>
+    </row>
+    <row r="265" spans="6:6">
+      <c r="F265" s="10"/>
+    </row>
+    <row r="266" spans="6:6">
+      <c r="F266" s="10"/>
+    </row>
+    <row r="267" spans="6:6">
+      <c r="F267" s="10"/>
+    </row>
+    <row r="268" spans="6:6">
+      <c r="F268" s="10"/>
+    </row>
+    <row r="269" spans="6:6">
+      <c r="F269" s="10"/>
+    </row>
+    <row r="270" spans="6:6">
+      <c r="F270" s="10"/>
+    </row>
+    <row r="271" spans="6:6">
+      <c r="F271" s="10"/>
+    </row>
+    <row r="272" spans="6:6">
+      <c r="F272" s="10"/>
+    </row>
+    <row r="273" spans="6:6">
+      <c r="F273" s="10"/>
+    </row>
+    <row r="274" spans="6:6">
+      <c r="F274" s="10"/>
+    </row>
+    <row r="275" spans="6:6">
+      <c r="F275" s="10"/>
+    </row>
+    <row r="276" spans="6:6">
+      <c r="F276" s="10"/>
+    </row>
+    <row r="277" spans="6:6">
+      <c r="F277" s="10"/>
+    </row>
+    <row r="278" spans="6:6">
+      <c r="F278" s="10"/>
+    </row>
+    <row r="279" spans="6:6">
+      <c r="F279" s="10"/>
+    </row>
+    <row r="280" spans="6:6">
+      <c r="F280" s="10"/>
+    </row>
+    <row r="281" spans="6:6">
+      <c r="F281" s="10"/>
+    </row>
+    <row r="282" spans="6:6">
+      <c r="F282" s="10"/>
+    </row>
+    <row r="283" spans="6:6">
+      <c r="F283" s="10"/>
+    </row>
+    <row r="284" spans="6:6">
+      <c r="F284" s="10"/>
+    </row>
+    <row r="285" spans="6:6">
+      <c r="F285" s="10"/>
+    </row>
+    <row r="286" spans="6:6">
+      <c r="F286" s="10"/>
+    </row>
+    <row r="287" spans="6:6">
+      <c r="F287" s="10"/>
+    </row>
+    <row r="288" spans="6:6">
+      <c r="F288" s="10"/>
+    </row>
+    <row r="289" spans="6:6">
+      <c r="F289" s="10"/>
+    </row>
+    <row r="290" spans="6:6">
+      <c r="F290" s="10"/>
+    </row>
+    <row r="291" spans="6:6">
+      <c r="F291" s="10"/>
+    </row>
+    <row r="292" spans="6:6">
+      <c r="F292" s="10"/>
+    </row>
+    <row r="293" spans="6:6">
+      <c r="F293" s="10"/>
+    </row>
+    <row r="294" spans="6:6">
+      <c r="F294" s="10"/>
+    </row>
+    <row r="295" spans="6:6">
+      <c r="F295" s="10"/>
+    </row>
+    <row r="296" spans="6:6">
+      <c r="F296" s="10"/>
+    </row>
+    <row r="297" spans="6:6">
+      <c r="F297" s="10"/>
+    </row>
+    <row r="298" spans="6:6">
+      <c r="F298" s="10"/>
+    </row>
+    <row r="299" spans="6:6">
+      <c r="F299" s="10"/>
+    </row>
+    <row r="300" spans="6:6">
+      <c r="F300" s="10"/>
+    </row>
+    <row r="301" spans="6:6">
+      <c r="F301" s="10"/>
+    </row>
+    <row r="302" spans="6:6">
+      <c r="F302" s="10"/>
+    </row>
+    <row r="303" spans="6:6">
+      <c r="F303" s="10"/>
+    </row>
+    <row r="304" spans="6:6">
+      <c r="F304" s="10"/>
+    </row>
+    <row r="305" spans="6:6">
+      <c r="F305" s="10"/>
+    </row>
+    <row r="306" spans="6:6">
+      <c r="F306" s="10"/>
+    </row>
+    <row r="307" spans="6:6">
+      <c r="F307" s="10"/>
+    </row>
+    <row r="308" spans="6:6">
+      <c r="F308" s="10"/>
+    </row>
+    <row r="309" spans="6:6">
+      <c r="F309" s="10"/>
+    </row>
+    <row r="310" spans="6:6">
+      <c r="F310" s="10"/>
+    </row>
+    <row r="311" spans="6:6">
+      <c r="F311" s="10"/>
+    </row>
+    <row r="312" spans="6:6">
+      <c r="F312" s="10"/>
+    </row>
+    <row r="313" spans="6:6">
+      <c r="F313" s="10"/>
+    </row>
+    <row r="314" spans="6:6">
+      <c r="F314" s="10"/>
+    </row>
+    <row r="315" spans="6:6">
+      <c r="F315" s="10"/>
+    </row>
+    <row r="316" spans="6:6">
+      <c r="F316" s="10"/>
+    </row>
+    <row r="317" spans="6:6">
+      <c r="F317" s="10"/>
+    </row>
+    <row r="318" spans="6:6">
+      <c r="F318" s="10"/>
+    </row>
+    <row r="319" spans="6:6">
+      <c r="F319" s="10"/>
+    </row>
+    <row r="320" spans="6:6">
+      <c r="F320" s="10"/>
+    </row>
+    <row r="321" spans="6:6">
+      <c r="F321" s="10"/>
+    </row>
+    <row r="322" spans="6:6">
+      <c r="F322" s="10"/>
+    </row>
+    <row r="323" spans="6:6">
+      <c r="F323" s="10"/>
+    </row>
+    <row r="324" spans="6:6">
+      <c r="F324" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4857,24 +4657,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -4882,7 +4682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -4890,7 +4690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -4898,7 +4698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -4906,7 +4706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -4914,7 +4714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -4922,7 +4722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -4930,7 +4730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -4938,7 +4738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -4946,7 +4746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -4954,7 +4754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4962,7 +4762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -4970,7 +4770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -4978,7 +4778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
